--- a/projeto1/test/graphs/xls/exata-all-shakespeare.xlsx
+++ b/projeto1/test/graphs/xls/exata-all-shakespeare.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betoc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cavalcanti/Documents/git/ufpe/string-processing/projeto1/test/graphs/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E1AFF6-92B5-1442-BAEB-AD87436CACD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result-all-shakespeare" sheetId="1" r:id="rId1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,10 +555,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -616,17 +617,24 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
+              <a:t>Arquivo 5MB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
               <a:t>Busca</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> Exata Shakespeare</a:t>
+              <a:t> Exata </a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1456,7 +1464,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1553,7 +1560,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1576,7 +1583,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1586,7 +1592,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1651,7 +1657,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2278,7 +2283,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2558,16 +2569,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2587,7 +2598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.14499999999999999</v>
       </c>
@@ -2608,7 +2619,7 @@
       </c>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.13700000000000001</v>
       </c>
@@ -2628,7 +2639,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.14499999999999999</v>
       </c>
@@ -2648,7 +2659,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.13900000000000001</v>
       </c>
@@ -2668,7 +2679,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.14299999999999999</v>
       </c>
@@ -2688,7 +2699,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.13100000000000001</v>
       </c>
@@ -2708,7 +2719,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.13600000000000001</v>
       </c>
@@ -2728,7 +2739,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.14099999999999999</v>
       </c>
@@ -2748,7 +2759,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.14000000000000001</v>
       </c>
@@ -2768,7 +2779,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.14699999999999999</v>
       </c>
@@ -2788,7 +2799,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.13500000000000001</v>
       </c>
@@ -2808,7 +2819,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.13400000000000001</v>
       </c>
@@ -2828,7 +2839,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.13700000000000001</v>
       </c>
@@ -2848,7 +2859,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.14699999999999999</v>
       </c>
@@ -2868,7 +2879,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.13500000000000001</v>
       </c>
@@ -2888,7 +2899,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.14499999999999999</v>
       </c>
@@ -2905,7 +2916,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.14099999999999999</v>
       </c>
@@ -2922,7 +2933,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.13500000000000001</v>
       </c>
@@ -2939,7 +2950,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.13600000000000001</v>
       </c>
@@ -2956,7 +2967,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.158</v>
       </c>
@@ -2973,7 +2984,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.13800000000000001</v>
       </c>
@@ -2990,7 +3001,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.13700000000000001</v>
       </c>
@@ -3007,7 +3018,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.13600000000000001</v>
       </c>
@@ -3024,7 +3035,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.16200000000000001</v>
       </c>
@@ -3041,7 +3052,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.14299999999999999</v>
       </c>
